--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 AG.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 AG.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AGCJ-306</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>10.71%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>AGCJ-308</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>8.70%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>AGCJ-314</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
     <t>4.48%</t>
   </si>
   <si>
+    <t>2.90%</t>
+  </si>
+  <si>
     <t>AGEC-330</t>
   </si>
   <si>
@@ -436,6 +448,9 @@
     <t>5.13%</t>
   </si>
   <si>
+    <t>2.50%</t>
+  </si>
+  <si>
     <t>ANSC-305</t>
   </si>
   <si>
@@ -646,6 +661,9 @@
     <t>7.35%</t>
   </si>
   <si>
+    <t>12.82%</t>
+  </si>
+  <si>
     <t>ENTO-322</t>
   </si>
   <si>
@@ -667,6 +685,9 @@
     <t>5.10%</t>
   </si>
   <si>
+    <t>2.97%</t>
+  </si>
+  <si>
     <t>ENTO-450</t>
   </si>
   <si>
@@ -727,6 +748,9 @@
     <t>2.25%</t>
   </si>
   <si>
+    <t>5.32%</t>
+  </si>
+  <si>
     <t>FSTC-489</t>
   </si>
   <si>
@@ -748,6 +772,9 @@
     <t>2.35%</t>
   </si>
   <si>
+    <t>1.16%</t>
+  </si>
+  <si>
     <t>GENE-310</t>
   </si>
   <si>
@@ -853,6 +880,9 @@
     <t>2.70%</t>
   </si>
   <si>
+    <t>7.50%</t>
+  </si>
+  <si>
     <t>RPTS-201</t>
   </si>
   <si>
@@ -925,6 +955,9 @@
     <t>HEO J</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>RPTS-331</t>
   </si>
   <si>
@@ -1036,6 +1069,9 @@
     <t>1.92%</t>
   </si>
   <si>
+    <t>1.89%</t>
+  </si>
+  <si>
     <t>JESSUP R</t>
   </si>
   <si>
@@ -1043,12 +1079,6 @@
   </si>
   <si>
     <t>22.50%</t>
-  </si>
-  <si>
-    <t>7.50%</t>
-  </si>
-  <si>
-    <t>2.50%</t>
   </si>
   <si>
     <t>SCSC-330</t>
@@ -1104,12 +1134,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1403,15 +1432,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H296"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1436,3000 +1465,3333 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.25</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>3.875</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>3.609</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
         <v>2.913</v>
       </c>
       <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
         <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>20</v>
       </c>
       <c r="C15" t="n">
         <v>3.4</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>33</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
         <v>3.712</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C29" t="n">
         <v>2.85</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C32" t="n">
         <v>3.6105</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C35" t="n">
         <v>3.432</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C36" t="n">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C39" t="n">
         <v>3.923</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C42" t="n">
         <v>2.5</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C45" t="n">
         <v>2.875</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C48" t="n">
         <v>3.905</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C51" t="n">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C57" t="n">
         <v>3.762</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C60" t="n">
         <v>3.846</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C61" t="n">
         <v>3.808</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C64" t="n">
         <v>2.969</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C67" t="n">
         <v>3.464</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
         <v>13</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
       <c r="H67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C68" t="n">
         <v>3.097</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C72" t="n">
         <v>3.421</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F72" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C75" t="n">
         <v>3.625</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E75" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C78" t="n">
         <v>2.613</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E78" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C79" t="n">
         <v>3.591</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E79" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C82" t="n">
         <v>3.525</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F82" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C92" t="n">
         <v>3.667</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E92" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F92" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C95" t="n">
         <v>3.8</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C98" t="n">
         <v>3.077</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E98" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F98" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G98" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C101" t="n">
         <v>3.241</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F101" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C104" t="n">
         <v>3.4</v>
       </c>
       <c r="D104" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G104" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C107" t="n">
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C110" t="n">
         <v>3.1875</v>
       </c>
       <c r="D110" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E110" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C113" t="n">
         <v>3.615</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E113" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F113" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C123" t="n">
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C126" t="n">
         <v>3.111</v>
       </c>
       <c r="D126" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E126" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F126" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C129" t="n">
         <v>3.333</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E129" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C132" t="n">
         <v>3.462</v>
       </c>
       <c r="D132" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E132" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C136" t="n">
         <v>3.5</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E136" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C137" t="n">
         <v>3.429</v>
       </c>
       <c r="D137" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E137" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F137" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C138" t="n">
         <v>4</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C139" t="n">
         <v>4</v>
       </c>
       <c r="D139" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C140" t="n">
         <v>3.4</v>
       </c>
       <c r="D140" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E140" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C143" t="n">
         <v>3.867</v>
       </c>
       <c r="D143" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E143" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C146" t="n">
         <v>2.1937</v>
       </c>
       <c r="D146" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E146" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F146" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G146" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H146" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I146" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C149" t="n">
         <v>2.289</v>
       </c>
       <c r="D149" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E149" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F149" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G149" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H149" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C152" t="n">
         <v>3.266</v>
       </c>
       <c r="D152" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E152" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F152" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C155" t="n">
         <v>4</v>
       </c>
       <c r="D155" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C161" t="n">
         <v>4</v>
       </c>
       <c r="D161" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C164" t="n">
         <v>3.155</v>
       </c>
       <c r="D164" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E164" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F164" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G164" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H164" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>214</v>
+      </c>
+      <c r="I164" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C167" t="n">
         <v>2.796</v>
       </c>
       <c r="D167" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E167" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F167" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G167" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H167" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I167" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C173" t="n">
         <v>3.286</v>
       </c>
       <c r="D173" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E173" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C179" t="n">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C182" t="n">
         <v>4</v>
       </c>
       <c r="D182" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C185" t="n">
         <v>3.9</v>
       </c>
       <c r="D185" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="E185" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C188" t="n">
         <v>4</v>
       </c>
       <c r="D188" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C191" t="n">
         <v>3.36</v>
       </c>
       <c r="D191" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E191" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F191" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="G191" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H191" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I191" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C194" t="n">
         <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C197" t="n">
         <v>3.0673</v>
       </c>
       <c r="D197" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E197" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G197" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H197" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I197" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C200" t="n">
         <v>2.824</v>
       </c>
       <c r="D200" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="E200" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F200" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G200" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H200" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C203" t="n">
         <v>3.3705</v>
       </c>
       <c r="D203" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E203" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F203" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C206" t="n">
         <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C209" t="n">
         <v>3.362</v>
       </c>
       <c r="D209" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E209" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F209" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C212" t="n">
         <v>3.279</v>
       </c>
       <c r="D212" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E212" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="F212" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="G212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C215" t="n">
         <v>3</v>
       </c>
       <c r="D215" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E215" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>276</v>
+      </c>
+      <c r="I215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C221" t="n">
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C224" t="n">
         <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H225" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C228" t="n">
         <v>3.1635</v>
       </c>
       <c r="D228" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E228" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F228" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G228" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="H228" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I228" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C231" t="n">
         <v>3.424</v>
       </c>
       <c r="D231" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E231" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F231" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="G231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H231" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C234" t="n">
         <v>3.694</v>
       </c>
       <c r="D234" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E234" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F234" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G234" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C237" t="n">
         <v>3.381</v>
       </c>
       <c r="D237" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E237" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F237" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G237" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H237" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C238" t="n">
         <v>4</v>
       </c>
       <c r="D238" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C241" t="n">
         <v>3.179</v>
       </c>
       <c r="D241" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E241" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G241" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H241" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C244" t="n">
         <v>3.375</v>
       </c>
       <c r="D244" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E244" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H244" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C247" t="n">
         <v>3.038</v>
       </c>
       <c r="D247" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E247" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F247" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H247" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C250" t="n">
         <v>3.4</v>
       </c>
       <c r="D250" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E250" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I250" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C253" t="n">
         <v>2.714</v>
       </c>
       <c r="D253" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="E253" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F253" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H253" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="I253" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="B256" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C256" t="n">
         <v>2.783</v>
       </c>
       <c r="D256" t="s">
+        <v>29</v>
+      </c>
+      <c r="E256" t="s">
+        <v>319</v>
+      </c>
+      <c r="F256" t="s">
+        <v>320</v>
+      </c>
+      <c r="G256" t="s">
+        <v>24</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
+      </c>
+      <c r="I256" t="s">
         <v>26</v>
       </c>
-      <c r="E256" t="s">
-        <v>308</v>
-      </c>
-      <c r="F256" t="s">
-        <v>309</v>
-      </c>
-      <c r="G256" t="s">
-        <v>22</v>
-      </c>
-      <c r="H256" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C259" t="n">
         <v>2.816</v>
       </c>
       <c r="D259" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="E259" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F259" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G259" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H259" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="C262" t="n">
         <v>3.607</v>
       </c>
       <c r="D262" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E262" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F262" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G262" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C265" t="n">
         <v>2.792</v>
       </c>
       <c r="D265" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E265" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F265" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G265" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H265" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I265" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="B268" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C268" t="n">
         <v>3</v>
       </c>
       <c r="D268" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E268" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F268" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G268" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H268" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I268" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
       <c r="A270" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="B271" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C271" t="n">
         <v>3.125</v>
       </c>
       <c r="D271" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="E271" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F271" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G271" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H271" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I271" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
       <c r="A273" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="B274" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C274" t="n">
         <v>3.7255</v>
       </c>
       <c r="D274" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E274" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F274" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G274" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="H274" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>336</v>
+      </c>
+      <c r="I274" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
       <c r="A276" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="B277" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C277" t="n">
         <v>3.875</v>
       </c>
       <c r="D277" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E277" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G277" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H277" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I277" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
       <c r="A279" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="B280" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C280" t="n">
         <v>3.003</v>
       </c>
       <c r="D280" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E280" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F280" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="G280" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="H280" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>344</v>
+      </c>
+      <c r="I280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="A282" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="B283" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C283" t="n">
         <v>3.481</v>
       </c>
       <c r="D283" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="E283" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="F283" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="G283" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="H283" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I283" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C284" t="n">
         <v>3.55</v>
       </c>
       <c r="D284" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E284" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F284" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="G284" t="s">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="H284" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C287" t="n">
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H287" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I287" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C290" t="n">
         <v>4</v>
       </c>
       <c r="D290" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E290" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F290" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H290" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="B293" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C293" t="n">
         <v>4</v>
       </c>
       <c r="D293" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E293" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F293" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G293" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H293" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I293" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C296" t="n">
         <v>3.4</v>
       </c>
       <c r="D296" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E296" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F296" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G296" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H296" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I296" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 AG.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 AG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t>Course</t>
   </si>
@@ -391,6 +391,24 @@
     <t>4.92%</t>
   </si>
   <si>
+    <t>JR R</t>
+  </si>
+  <si>
+    <t>22.06%</t>
+  </si>
+  <si>
+    <t>52.94%</t>
+  </si>
+  <si>
+    <t>20.59%</t>
+  </si>
+  <si>
+    <t>1.47%</t>
+  </si>
+  <si>
+    <t>2.94%</t>
+  </si>
+  <si>
     <t>ALED-485</t>
   </si>
   <si>
@@ -752,9 +770,6 @@
   </si>
   <si>
     <t>17.65%</t>
-  </si>
-  <si>
-    <t>52.94%</t>
   </si>
   <si>
     <t>23.53%</t>
@@ -1403,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H296"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2298,37 +2313,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
+    <row r="83" spans="1:8">
+      <c r="B83" t="s">
         <v>125</v>
       </c>
+      <c r="C83" t="n">
+        <v>2.897</v>
+      </c>
+      <c r="D83" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" t="s">
+        <v>129</v>
+      </c>
+      <c r="H83" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" t="s">
-        <v>13</v>
+      <c r="A85" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C86" t="n">
         <v>4</v>
@@ -2349,489 +2364,489 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>127</v>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="B89" t="s">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" t="s">
         <v>85</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C90" t="n">
         <v>4</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>34</v>
       </c>
-      <c r="E89" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>128</v>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" t="n">
         <v>3.667</v>
       </c>
-      <c r="D92" t="s">
-        <v>130</v>
-      </c>
-      <c r="E92" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" t="s">
-        <v>131</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>132</v>
+      <c r="D93" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" t="s">
+        <v>137</v>
+      </c>
+      <c r="F93" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" t="n">
+      <c r="A95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" t="n">
         <v>3.8</v>
       </c>
-      <c r="D95" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="D96" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" t="s">
         <v>30</v>
       </c>
-      <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s">
-        <v>13</v>
-      </c>
-      <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
-        <v>135</v>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="B98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="A98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="n">
         <v>3.077</v>
       </c>
-      <c r="D98" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" t="s">
-        <v>137</v>
-      </c>
-      <c r="F98" t="s">
-        <v>138</v>
-      </c>
-      <c r="G98" t="s">
-        <v>139</v>
-      </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
-        <v>140</v>
+      <c r="D99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" t="s">
+        <v>143</v>
+      </c>
+      <c r="F99" t="s">
+        <v>144</v>
+      </c>
+      <c r="G99" t="s">
+        <v>145</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="B101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" t="n">
+      <c r="A101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" t="n">
         <v>3.241</v>
       </c>
-      <c r="D101" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" t="s">
-        <v>143</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="D102" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" t="s">
+        <v>149</v>
+      </c>
+      <c r="F102" t="s">
         <v>79</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>12</v>
       </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>144</v>
+      <c r="H102" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="A104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" t="n">
         <v>3.4</v>
       </c>
-      <c r="D104" t="s">
-        <v>146</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D105" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" t="s">
         <v>30</v>
       </c>
-      <c r="F104" t="s">
-        <v>147</v>
-      </c>
-      <c r="G104" t="s">
-        <v>148</v>
-      </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>149</v>
+      <c r="F105" t="s">
+        <v>153</v>
+      </c>
+      <c r="G105" t="s">
+        <v>154</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="B107" t="s">
-        <v>150</v>
-      </c>
-      <c r="C107" t="n">
+      <c r="A107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" t="n">
         <v>3</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>45</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>46</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>44</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G108" t="s">
         <v>47</v>
       </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>151</v>
+      <c r="H108" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>152</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="A110" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" t="n">
         <v>3.1875</v>
       </c>
-      <c r="D110" t="s">
-        <v>153</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D111" t="s">
+        <v>159</v>
+      </c>
+      <c r="E111" t="s">
         <v>119</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F111" t="s">
         <v>44</v>
       </c>
-      <c r="G110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>154</v>
-      </c>
-    </row>
     <row r="113" spans="1:8">
-      <c r="B113" t="s">
-        <v>129</v>
-      </c>
-      <c r="C113" t="n">
-        <v>3.615</v>
-      </c>
-      <c r="D113" t="s">
-        <v>50</v>
-      </c>
-      <c r="E113" t="s">
-        <v>155</v>
-      </c>
-      <c r="F113" t="s">
-        <v>62</v>
-      </c>
-      <c r="G113" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" t="s">
-        <v>13</v>
+      <c r="A113" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="B114" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C114" t="n">
+        <v>3.615</v>
+      </c>
+      <c r="D114" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" t="s">
+        <v>161</v>
+      </c>
+      <c r="F114" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" t="n">
         <v>4</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>34</v>
       </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>157</v>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>158</v>
-      </c>
-      <c r="C117" t="n">
+      <c r="A117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" t="n">
         <v>4</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>34</v>
       </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>159</v>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="B120" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" t="n">
+      <c r="A120" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="B121" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" t="n">
         <v>4</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>34</v>
       </c>
-      <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" t="s">
-        <v>160</v>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="B123" t="s">
-        <v>158</v>
-      </c>
-      <c r="C123" t="n">
+      <c r="A123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="B124" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" t="n">
         <v>4</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>34</v>
       </c>
-      <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s">
-        <v>13</v>
-      </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" t="s">
-        <v>161</v>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="B126" t="s">
+      <c r="A126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
         <v>64</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C127" t="n">
         <v>3.111</v>
       </c>
-      <c r="D126" t="s">
-        <v>162</v>
-      </c>
-      <c r="E126" t="s">
-        <v>163</v>
-      </c>
-      <c r="F126" t="s">
-        <v>131</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>164</v>
+      <c r="D127" t="s">
+        <v>168</v>
+      </c>
+      <c r="E127" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" t="s">
+        <v>137</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="B129" t="s">
+      <c r="A129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="B130" t="s">
         <v>64</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C130" t="n">
         <v>3.333</v>
       </c>
-      <c r="D129" t="s">
-        <v>165</v>
-      </c>
-      <c r="E129" t="s">
-        <v>163</v>
-      </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>166</v>
+      <c r="D130" t="s">
+        <v>171</v>
+      </c>
+      <c r="E130" t="s">
+        <v>169</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="B132" t="s">
-        <v>167</v>
-      </c>
-      <c r="C132" t="n">
+      <c r="A132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="B133" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" t="n">
         <v>3.462</v>
       </c>
-      <c r="D132" t="s">
-        <v>168</v>
-      </c>
-      <c r="E132" t="s">
-        <v>169</v>
-      </c>
-      <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>170</v>
+      <c r="D133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" t="s">
+        <v>175</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="B135" t="s">
-        <v>171</v>
-      </c>
-      <c r="C135" t="n">
-        <v>4</v>
-      </c>
-      <c r="D135" t="s">
-        <v>34</v>
-      </c>
-      <c r="E135" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" t="s">
-        <v>13</v>
+      <c r="A135" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="B136" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C136" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E136" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
@@ -2845,19 +2860,19 @@
     </row>
     <row r="137" spans="1:8">
       <c r="B137" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C137" t="n">
-        <v>3.429</v>
+        <v>3.5</v>
       </c>
       <c r="D137" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="E137" t="s">
-        <v>175</v>
+        <v>65</v>
       </c>
       <c r="F137" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
         <v>13</v>
@@ -2868,19 +2883,19 @@
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>3.429</v>
       </c>
       <c r="D138" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
@@ -2891,7 +2906,7 @@
     </row>
     <row r="139" spans="1:8">
       <c r="B139" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C139" t="n">
         <v>4</v>
@@ -2914,814 +2929,814 @@
     </row>
     <row r="140" spans="1:8">
       <c r="B140" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="B141" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" t="n">
         <v>3.4</v>
       </c>
-      <c r="D140" t="s">
-        <v>179</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D141" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141" t="s">
         <v>30</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F141" t="s">
         <v>30</v>
       </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>180</v>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="B143" t="s">
+      <c r="A143" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="B144" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="D144" t="s">
+        <v>188</v>
+      </c>
+      <c r="E144" t="s">
+        <v>189</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.1937</v>
+      </c>
+      <c r="D147" t="s">
+        <v>192</v>
+      </c>
+      <c r="E147" t="s">
+        <v>193</v>
+      </c>
+      <c r="F147" t="s">
+        <v>193</v>
+      </c>
+      <c r="G147" t="s">
+        <v>194</v>
+      </c>
+      <c r="H147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="B150" t="s">
+        <v>197</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.289</v>
+      </c>
+      <c r="D150" t="s">
+        <v>198</v>
+      </c>
+      <c r="E150" t="s">
+        <v>199</v>
+      </c>
+      <c r="F150" t="s">
+        <v>200</v>
+      </c>
+      <c r="G150" t="s">
+        <v>199</v>
+      </c>
+      <c r="H150" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="B153" t="s">
+        <v>202</v>
+      </c>
+      <c r="C153" t="n">
+        <v>3.266</v>
+      </c>
+      <c r="D153" t="s">
+        <v>203</v>
+      </c>
+      <c r="E153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F153" t="s">
+        <v>116</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="B156" t="s">
+        <v>205</v>
+      </c>
+      <c r="C156" t="n">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>209</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="B165" t="s">
+        <v>211</v>
+      </c>
+      <c r="C165" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="D165" t="s">
+        <v>212</v>
+      </c>
+      <c r="E165" t="s">
+        <v>213</v>
+      </c>
+      <c r="F165" t="s">
+        <v>214</v>
+      </c>
+      <c r="G165" t="s">
+        <v>215</v>
+      </c>
+      <c r="H165" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="B168" t="s">
+        <v>217</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="D168" t="s">
+        <v>218</v>
+      </c>
+      <c r="E168" t="s">
+        <v>219</v>
+      </c>
+      <c r="F168" t="s">
+        <v>220</v>
+      </c>
+      <c r="G168" t="s">
+        <v>221</v>
+      </c>
+      <c r="H168" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="B171" t="s">
+        <v>209</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>34</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
+        <v>209</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D174" t="s">
         <v>181</v>
       </c>
-      <c r="C143" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="E174" t="s">
+        <v>96</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>226</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4</v>
+      </c>
+      <c r="D177" t="s">
+        <v>34</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>228</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="B183" t="s">
+        <v>230</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4</v>
+      </c>
+      <c r="D183" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="B186" t="s">
+        <v>232</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>233</v>
+      </c>
+      <c r="E186" t="s">
+        <v>154</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4</v>
+      </c>
+      <c r="D189" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
+        <v>237</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D192" t="s">
+        <v>238</v>
+      </c>
+      <c r="E192" t="s">
+        <v>239</v>
+      </c>
+      <c r="F192" t="s">
+        <v>240</v>
+      </c>
+      <c r="G192" t="s">
+        <v>241</v>
+      </c>
+      <c r="H192" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>244</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>34</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="B198" t="s">
+        <v>207</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.0673</v>
+      </c>
+      <c r="D198" t="s">
+        <v>246</v>
+      </c>
+      <c r="E198" t="s">
+        <v>247</v>
+      </c>
+      <c r="F198" t="s">
+        <v>30</v>
+      </c>
+      <c r="G198" t="s">
+        <v>248</v>
+      </c>
+      <c r="H198" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="B201" t="s">
         <v>182</v>
       </c>
-      <c r="E143" t="s">
-        <v>183</v>
-      </c>
-      <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="B146" t="s">
-        <v>185</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.1937</v>
-      </c>
-      <c r="D146" t="s">
-        <v>186</v>
-      </c>
-      <c r="E146" t="s">
-        <v>187</v>
-      </c>
-      <c r="F146" t="s">
-        <v>187</v>
-      </c>
-      <c r="G146" t="s">
-        <v>188</v>
-      </c>
-      <c r="H146" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="B149" t="s">
-        <v>191</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2.289</v>
-      </c>
-      <c r="D149" t="s">
-        <v>192</v>
-      </c>
-      <c r="E149" t="s">
-        <v>193</v>
-      </c>
-      <c r="F149" t="s">
-        <v>194</v>
-      </c>
-      <c r="G149" t="s">
-        <v>193</v>
-      </c>
-      <c r="H149" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="B152" t="s">
-        <v>196</v>
-      </c>
-      <c r="C152" t="n">
-        <v>3.266</v>
-      </c>
-      <c r="D152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E152" t="s">
-        <v>98</v>
-      </c>
-      <c r="F152" t="s">
-        <v>116</v>
-      </c>
-      <c r="G152" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="B155" t="s">
-        <v>199</v>
-      </c>
-      <c r="C155" t="n">
+      <c r="C201" t="n">
+        <v>2.824</v>
+      </c>
+      <c r="D201" t="s">
+        <v>251</v>
+      </c>
+      <c r="E201" t="s">
+        <v>127</v>
+      </c>
+      <c r="F201" t="s">
+        <v>252</v>
+      </c>
+      <c r="G201" t="s">
+        <v>248</v>
+      </c>
+      <c r="H201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="B204" t="s">
+        <v>254</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.3705</v>
+      </c>
+      <c r="D204" t="s">
+        <v>255</v>
+      </c>
+      <c r="E204" t="s">
+        <v>256</v>
+      </c>
+      <c r="F204" t="s">
+        <v>257</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="B207" t="s">
+        <v>259</v>
+      </c>
+      <c r="C207" t="n">
         <v>4</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D207" t="s">
         <v>34</v>
       </c>
-      <c r="E155" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>201</v>
-      </c>
-      <c r="C158" t="n">
+      <c r="E207" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" t="s">
+        <v>13</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="B210" t="s">
+        <v>261</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="D210" t="s">
+        <v>262</v>
+      </c>
+      <c r="E210" t="s">
+        <v>263</v>
+      </c>
+      <c r="F210" t="s">
+        <v>264</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="B213" t="s">
+        <v>266</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.279</v>
+      </c>
+      <c r="D213" t="s">
+        <v>267</v>
+      </c>
+      <c r="E213" t="s">
+        <v>268</v>
+      </c>
+      <c r="F213" t="s">
+        <v>269</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="B216" t="s">
+        <v>271</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3</v>
+      </c>
+      <c r="D216" t="s">
+        <v>65</v>
+      </c>
+      <c r="E216" t="s">
+        <v>171</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="B219" t="s">
+        <v>244</v>
+      </c>
+      <c r="C219" t="n">
         <v>4</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D219" t="s">
         <v>34</v>
       </c>
-      <c r="E158" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>203</v>
-      </c>
-      <c r="C161" t="n">
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="B222" t="s">
+        <v>275</v>
+      </c>
+      <c r="C222" t="n">
         <v>4</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D222" t="s">
         <v>34</v>
       </c>
-      <c r="E161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>205</v>
-      </c>
-      <c r="C164" t="n">
-        <v>3.155</v>
-      </c>
-      <c r="D164" t="s">
-        <v>206</v>
-      </c>
-      <c r="E164" t="s">
-        <v>207</v>
-      </c>
-      <c r="F164" t="s">
-        <v>208</v>
-      </c>
-      <c r="G164" t="s">
-        <v>209</v>
-      </c>
-      <c r="H164" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="B167" t="s">
-        <v>211</v>
-      </c>
-      <c r="C167" t="n">
-        <v>2.796</v>
-      </c>
-      <c r="D167" t="s">
-        <v>212</v>
-      </c>
-      <c r="E167" t="s">
-        <v>213</v>
-      </c>
-      <c r="F167" t="s">
-        <v>214</v>
-      </c>
-      <c r="G167" t="s">
-        <v>215</v>
-      </c>
-      <c r="H167" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="B170" t="s">
-        <v>203</v>
-      </c>
-      <c r="C170" t="n">
-        <v>4</v>
-      </c>
-      <c r="D170" t="s">
-        <v>34</v>
-      </c>
-      <c r="E170" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s">
-        <v>13</v>
-      </c>
-      <c r="H170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="B173" t="s">
-        <v>203</v>
-      </c>
-      <c r="C173" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="D173" t="s">
-        <v>175</v>
-      </c>
-      <c r="E173" t="s">
-        <v>96</v>
-      </c>
-      <c r="F173" t="s">
-        <v>13</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="B176" t="s">
-        <v>220</v>
-      </c>
-      <c r="C176" t="n">
-        <v>4</v>
-      </c>
-      <c r="D176" t="s">
-        <v>34</v>
-      </c>
-      <c r="E176" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="B179" t="s">
-        <v>222</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4</v>
-      </c>
-      <c r="D179" t="s">
-        <v>34</v>
-      </c>
-      <c r="E179" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="s">
-        <v>13</v>
-      </c>
-      <c r="G179" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="B182" t="s">
-        <v>224</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4</v>
-      </c>
-      <c r="D182" t="s">
-        <v>34</v>
-      </c>
-      <c r="E182" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" t="s">
-        <v>13</v>
-      </c>
-      <c r="G182" t="s">
-        <v>13</v>
-      </c>
-      <c r="H182" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="B185" t="s">
-        <v>226</v>
-      </c>
-      <c r="C185" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D185" t="s">
-        <v>227</v>
-      </c>
-      <c r="E185" t="s">
-        <v>148</v>
-      </c>
-      <c r="F185" t="s">
-        <v>13</v>
-      </c>
-      <c r="G185" t="s">
-        <v>13</v>
-      </c>
-      <c r="H185" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="B188" t="s">
-        <v>229</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4</v>
-      </c>
-      <c r="D188" t="s">
-        <v>34</v>
-      </c>
-      <c r="E188" t="s">
-        <v>13</v>
-      </c>
-      <c r="F188" t="s">
-        <v>13</v>
-      </c>
-      <c r="G188" t="s">
-        <v>13</v>
-      </c>
-      <c r="H188" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="B191" t="s">
-        <v>231</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="D191" t="s">
-        <v>232</v>
-      </c>
-      <c r="E191" t="s">
-        <v>233</v>
-      </c>
-      <c r="F191" t="s">
-        <v>234</v>
-      </c>
-      <c r="G191" t="s">
-        <v>235</v>
-      </c>
-      <c r="H191" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="B194" t="s">
-        <v>238</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4</v>
-      </c>
-      <c r="D194" t="s">
-        <v>34</v>
-      </c>
-      <c r="E194" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" t="s">
-        <v>13</v>
-      </c>
-      <c r="H194" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>201</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.0673</v>
-      </c>
-      <c r="D197" t="s">
-        <v>240</v>
-      </c>
-      <c r="E197" t="s">
-        <v>241</v>
-      </c>
-      <c r="F197" t="s">
-        <v>30</v>
-      </c>
-      <c r="G197" t="s">
-        <v>242</v>
-      </c>
-      <c r="H197" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>176</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.824</v>
-      </c>
-      <c r="D200" t="s">
-        <v>245</v>
-      </c>
-      <c r="E200" t="s">
-        <v>246</v>
-      </c>
-      <c r="F200" t="s">
-        <v>247</v>
-      </c>
-      <c r="G200" t="s">
-        <v>242</v>
-      </c>
-      <c r="H200" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="B203" t="s">
-        <v>249</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.3705</v>
-      </c>
-      <c r="D203" t="s">
-        <v>250</v>
-      </c>
-      <c r="E203" t="s">
-        <v>251</v>
-      </c>
-      <c r="F203" t="s">
-        <v>252</v>
-      </c>
-      <c r="G203" t="s">
-        <v>13</v>
-      </c>
-      <c r="H203" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="B206" t="s">
-        <v>254</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4</v>
-      </c>
-      <c r="D206" t="s">
-        <v>34</v>
-      </c>
-      <c r="E206" t="s">
-        <v>13</v>
-      </c>
-      <c r="F206" t="s">
-        <v>13</v>
-      </c>
-      <c r="G206" t="s">
-        <v>13</v>
-      </c>
-      <c r="H206" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="B209" t="s">
-        <v>256</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.362</v>
-      </c>
-      <c r="D209" t="s">
-        <v>257</v>
-      </c>
-      <c r="E209" t="s">
-        <v>258</v>
-      </c>
-      <c r="F209" t="s">
-        <v>259</v>
-      </c>
-      <c r="G209" t="s">
-        <v>13</v>
-      </c>
-      <c r="H209" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="B212" t="s">
-        <v>261</v>
-      </c>
-      <c r="C212" t="n">
-        <v>3.279</v>
-      </c>
-      <c r="D212" t="s">
-        <v>262</v>
-      </c>
-      <c r="E212" t="s">
-        <v>263</v>
-      </c>
-      <c r="F212" t="s">
-        <v>264</v>
-      </c>
-      <c r="G212" t="s">
-        <v>13</v>
-      </c>
-      <c r="H212" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="B215" t="s">
-        <v>266</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3</v>
-      </c>
-      <c r="D215" t="s">
-        <v>65</v>
-      </c>
-      <c r="E215" t="s">
-        <v>165</v>
-      </c>
-      <c r="F215" t="s">
-        <v>13</v>
-      </c>
-      <c r="G215" t="s">
-        <v>13</v>
-      </c>
-      <c r="H215" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="B218" t="s">
-        <v>238</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4</v>
-      </c>
-      <c r="D218" t="s">
-        <v>34</v>
-      </c>
-      <c r="E218" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" t="s">
-        <v>13</v>
-      </c>
-      <c r="G218" t="s">
-        <v>13</v>
-      </c>
-      <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="B221" t="s">
-        <v>270</v>
-      </c>
-      <c r="C221" t="n">
-        <v>4</v>
-      </c>
-      <c r="D221" t="s">
-        <v>34</v>
-      </c>
-      <c r="E221" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" t="s">
-        <v>13</v>
-      </c>
-      <c r="G221" t="s">
-        <v>13</v>
-      </c>
-      <c r="H221" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" t="s">
-        <v>271</v>
+      <c r="E222" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="B224" t="s">
-        <v>272</v>
-      </c>
-      <c r="C224" t="n">
-        <v>4</v>
-      </c>
-      <c r="D224" t="s">
-        <v>34</v>
-      </c>
-      <c r="E224" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" t="s">
-        <v>13</v>
-      </c>
-      <c r="H224" t="s">
-        <v>13</v>
+      <c r="A224" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
@@ -3742,559 +3757,559 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>273</v>
+    <row r="226" spans="1:8">
+      <c r="B226" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4</v>
+      </c>
+      <c r="D226" t="s">
+        <v>34</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s">
+        <v>13</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="B228" t="s">
-        <v>274</v>
-      </c>
-      <c r="C228" t="n">
+      <c r="A228" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="B229" t="s">
+        <v>279</v>
+      </c>
+      <c r="C229" t="n">
         <v>3.1635</v>
       </c>
-      <c r="D228" t="s">
-        <v>275</v>
-      </c>
-      <c r="E228" t="s">
-        <v>276</v>
-      </c>
-      <c r="F228" t="s">
-        <v>276</v>
-      </c>
-      <c r="G228" t="s">
-        <v>277</v>
-      </c>
-      <c r="H228" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>279</v>
+      <c r="D229" t="s">
+        <v>280</v>
+      </c>
+      <c r="E229" t="s">
+        <v>281</v>
+      </c>
+      <c r="F229" t="s">
+        <v>281</v>
+      </c>
+      <c r="G229" t="s">
+        <v>282</v>
+      </c>
+      <c r="H229" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="B231" t="s">
-        <v>280</v>
-      </c>
-      <c r="C231" t="n">
+      <c r="A231" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="B232" t="s">
+        <v>285</v>
+      </c>
+      <c r="C232" t="n">
         <v>3.424</v>
       </c>
-      <c r="D231" t="s">
-        <v>281</v>
-      </c>
-      <c r="E231" t="s">
-        <v>282</v>
-      </c>
-      <c r="F231" t="s">
-        <v>283</v>
-      </c>
-      <c r="G231" t="s">
-        <v>13</v>
-      </c>
-      <c r="H231" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>284</v>
+      <c r="D232" t="s">
+        <v>286</v>
+      </c>
+      <c r="E232" t="s">
+        <v>287</v>
+      </c>
+      <c r="F232" t="s">
+        <v>288</v>
+      </c>
+      <c r="G232" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>285</v>
-      </c>
-      <c r="C234" t="n">
+      <c r="A234" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
+        <v>290</v>
+      </c>
+      <c r="C235" t="n">
         <v>3.694</v>
       </c>
-      <c r="D234" t="s">
-        <v>130</v>
-      </c>
-      <c r="E234" t="s">
-        <v>267</v>
-      </c>
-      <c r="F234" t="s">
-        <v>286</v>
-      </c>
-      <c r="G234" t="s">
-        <v>286</v>
-      </c>
-      <c r="H234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>287</v>
+      <c r="D235" t="s">
+        <v>136</v>
+      </c>
+      <c r="E235" t="s">
+        <v>272</v>
+      </c>
+      <c r="F235" t="s">
+        <v>291</v>
+      </c>
+      <c r="G235" t="s">
+        <v>291</v>
+      </c>
+      <c r="H235" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>288</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.381</v>
-      </c>
-      <c r="D237" t="s">
-        <v>289</v>
-      </c>
-      <c r="E237" t="s">
-        <v>79</v>
-      </c>
-      <c r="F237" t="s">
-        <v>290</v>
-      </c>
-      <c r="G237" t="s">
-        <v>13</v>
-      </c>
-      <c r="H237" t="s">
-        <v>13</v>
+      <c r="A237" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="B238" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C238" t="n">
+        <v>3.381</v>
+      </c>
+      <c r="D238" t="s">
+        <v>294</v>
+      </c>
+      <c r="E238" t="s">
+        <v>79</v>
+      </c>
+      <c r="F238" t="s">
+        <v>295</v>
+      </c>
+      <c r="G238" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="B239" t="s">
+        <v>296</v>
+      </c>
+      <c r="C239" t="n">
         <v>4</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D239" t="s">
         <v>34</v>
       </c>
-      <c r="E238" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" t="s">
-        <v>13</v>
-      </c>
-      <c r="G238" t="s">
-        <v>13</v>
-      </c>
-      <c r="H238" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" t="s">
-        <v>292</v>
+      <c r="E239" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
+        <v>13</v>
+      </c>
+      <c r="G239" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="B241" t="s">
-        <v>293</v>
-      </c>
-      <c r="C241" t="n">
+      <c r="A241" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="B242" t="s">
+        <v>298</v>
+      </c>
+      <c r="C242" t="n">
         <v>3.179</v>
       </c>
-      <c r="D241" t="s">
-        <v>294</v>
-      </c>
-      <c r="E241" t="s">
-        <v>295</v>
-      </c>
-      <c r="F241" t="s">
+      <c r="D242" t="s">
+        <v>299</v>
+      </c>
+      <c r="E242" t="s">
+        <v>300</v>
+      </c>
+      <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G242" t="s">
         <v>97</v>
       </c>
-      <c r="H241" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" t="s">
-        <v>296</v>
+      <c r="H242" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="B244" t="s">
-        <v>297</v>
-      </c>
-      <c r="C244" t="n">
+      <c r="A244" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="B245" t="s">
+        <v>302</v>
+      </c>
+      <c r="C245" t="n">
         <v>3.375</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D245" t="s">
         <v>65</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E245" t="s">
         <v>68</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F245" t="s">
         <v>18</v>
       </c>
-      <c r="G244" t="s">
-        <v>13</v>
-      </c>
-      <c r="H244" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" t="s">
-        <v>298</v>
+      <c r="G245" t="s">
+        <v>13</v>
+      </c>
+      <c r="H245" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="B247" t="s">
-        <v>299</v>
-      </c>
-      <c r="C247" t="n">
+      <c r="A247" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="B248" t="s">
+        <v>304</v>
+      </c>
+      <c r="C248" t="n">
         <v>3.038</v>
       </c>
-      <c r="D247" t="s">
-        <v>155</v>
-      </c>
-      <c r="E247" t="s">
-        <v>300</v>
-      </c>
-      <c r="F247" t="s">
+      <c r="D248" t="s">
+        <v>161</v>
+      </c>
+      <c r="E248" t="s">
+        <v>305</v>
+      </c>
+      <c r="F248" t="s">
         <v>87</v>
       </c>
-      <c r="G247" t="s">
-        <v>13</v>
-      </c>
-      <c r="H247" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" t="s">
-        <v>301</v>
+      <c r="G248" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="B250" t="s">
+      <c r="A250" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
+        <v>307</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>185</v>
+      </c>
+      <c r="E251" t="s">
+        <v>30</v>
+      </c>
+      <c r="F251" t="s">
+        <v>30</v>
+      </c>
+      <c r="G251" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="B254" t="s">
+        <v>309</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="D254" t="s">
+        <v>310</v>
+      </c>
+      <c r="E254" t="s">
+        <v>181</v>
+      </c>
+      <c r="F254" t="s">
+        <v>67</v>
+      </c>
+      <c r="G254" t="s">
+        <v>12</v>
+      </c>
+      <c r="H254" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="B257" t="s">
+        <v>312</v>
+      </c>
+      <c r="C257" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="D257" t="s">
+        <v>26</v>
+      </c>
+      <c r="E257" t="s">
+        <v>313</v>
+      </c>
+      <c r="F257" t="s">
+        <v>314</v>
+      </c>
+      <c r="G257" t="s">
+        <v>22</v>
+      </c>
+      <c r="H257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="B260" t="s">
+        <v>285</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="D260" t="s">
+        <v>316</v>
+      </c>
+      <c r="E260" t="s">
+        <v>317</v>
+      </c>
+      <c r="F260" t="s">
+        <v>318</v>
+      </c>
+      <c r="G260" t="s">
+        <v>107</v>
+      </c>
+      <c r="H260" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="B263" t="s">
+        <v>320</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3.607</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>310</v>
+      </c>
+      <c r="F263" t="s">
+        <v>97</v>
+      </c>
+      <c r="G263" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="B266" t="s">
         <v>302</v>
       </c>
-      <c r="C250" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D250" t="s">
-        <v>179</v>
-      </c>
-      <c r="E250" t="s">
+      <c r="C266" t="n">
+        <v>2.792</v>
+      </c>
+      <c r="D266" t="s">
+        <v>67</v>
+      </c>
+      <c r="E266" t="s">
+        <v>322</v>
+      </c>
+      <c r="F266" t="s">
+        <v>18</v>
+      </c>
+      <c r="G266" t="s">
+        <v>272</v>
+      </c>
+      <c r="H266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="B269" t="s">
+        <v>302</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3</v>
+      </c>
+      <c r="D269" t="s">
         <v>30</v>
       </c>
-      <c r="F250" t="s">
+      <c r="E269" t="s">
+        <v>185</v>
+      </c>
+      <c r="F269" t="s">
         <v>30</v>
       </c>
-      <c r="G250" t="s">
-        <v>13</v>
-      </c>
-      <c r="H250" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="B253" t="s">
-        <v>304</v>
-      </c>
-      <c r="C253" t="n">
-        <v>2.714</v>
-      </c>
-      <c r="D253" t="s">
-        <v>305</v>
-      </c>
-      <c r="E253" t="s">
-        <v>175</v>
-      </c>
-      <c r="F253" t="s">
-        <v>67</v>
-      </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
-      <c r="H253" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="B256" t="s">
-        <v>307</v>
-      </c>
-      <c r="C256" t="n">
-        <v>2.783</v>
-      </c>
-      <c r="D256" t="s">
-        <v>26</v>
-      </c>
-      <c r="E256" t="s">
-        <v>308</v>
-      </c>
-      <c r="F256" t="s">
-        <v>309</v>
-      </c>
-      <c r="G256" t="s">
-        <v>22</v>
-      </c>
-      <c r="H256" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="B259" t="s">
-        <v>280</v>
-      </c>
-      <c r="C259" t="n">
-        <v>2.816</v>
-      </c>
-      <c r="D259" t="s">
-        <v>311</v>
-      </c>
-      <c r="E259" t="s">
-        <v>312</v>
-      </c>
-      <c r="F259" t="s">
-        <v>313</v>
-      </c>
-      <c r="G259" t="s">
-        <v>107</v>
-      </c>
-      <c r="H259" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="B262" t="s">
-        <v>315</v>
-      </c>
-      <c r="C262" t="n">
-        <v>3.607</v>
-      </c>
-      <c r="D262" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262" t="s">
-        <v>305</v>
-      </c>
-      <c r="F262" t="s">
-        <v>97</v>
-      </c>
-      <c r="G262" t="s">
-        <v>13</v>
-      </c>
-      <c r="H262" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="B265" t="s">
-        <v>297</v>
-      </c>
-      <c r="C265" t="n">
-        <v>2.792</v>
-      </c>
-      <c r="D265" t="s">
-        <v>67</v>
-      </c>
-      <c r="E265" t="s">
-        <v>317</v>
-      </c>
-      <c r="F265" t="s">
+      <c r="G269" t="s">
+        <v>13</v>
+      </c>
+      <c r="H269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="B272" t="s">
+        <v>325</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D272" t="s">
+        <v>326</v>
+      </c>
+      <c r="E272" t="s">
+        <v>68</v>
+      </c>
+      <c r="F272" t="s">
         <v>18</v>
       </c>
-      <c r="G265" t="s">
-        <v>267</v>
-      </c>
-      <c r="H265" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="B268" t="s">
-        <v>297</v>
-      </c>
-      <c r="C268" t="n">
-        <v>3</v>
-      </c>
-      <c r="D268" t="s">
-        <v>30</v>
-      </c>
-      <c r="E268" t="s">
-        <v>179</v>
-      </c>
-      <c r="F268" t="s">
-        <v>30</v>
-      </c>
-      <c r="G268" t="s">
-        <v>13</v>
-      </c>
-      <c r="H268" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="B271" t="s">
-        <v>320</v>
-      </c>
-      <c r="C271" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="D271" t="s">
-        <v>321</v>
-      </c>
-      <c r="E271" t="s">
-        <v>68</v>
-      </c>
-      <c r="F271" t="s">
+      <c r="G272" t="s">
+        <v>13</v>
+      </c>
+      <c r="H272" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>328</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.7255</v>
+      </c>
+      <c r="D275" t="s">
+        <v>329</v>
+      </c>
+      <c r="E275" t="s">
+        <v>57</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" t="s">
+        <v>330</v>
+      </c>
+      <c r="H275" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="B278" t="s">
+        <v>332</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="D278" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" t="s">
         <v>18</v>
       </c>
-      <c r="G271" t="s">
-        <v>13</v>
-      </c>
-      <c r="H271" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="B274" t="s">
-        <v>323</v>
-      </c>
-      <c r="C274" t="n">
-        <v>3.7255</v>
-      </c>
-      <c r="D274" t="s">
-        <v>324</v>
-      </c>
-      <c r="E274" t="s">
-        <v>57</v>
-      </c>
-      <c r="F274" t="s">
-        <v>13</v>
-      </c>
-      <c r="G274" t="s">
-        <v>325</v>
-      </c>
-      <c r="H274" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="B277" t="s">
-        <v>327</v>
-      </c>
-      <c r="C277" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="D277" t="s">
-        <v>17</v>
-      </c>
-      <c r="E277" t="s">
-        <v>18</v>
-      </c>
-      <c r="F277" t="s">
-        <v>13</v>
-      </c>
-      <c r="G277" t="s">
-        <v>13</v>
-      </c>
-      <c r="H277" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>328</v>
+      <c r="F278" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" t="s">
+        <v>13</v>
+      </c>
+      <c r="H278" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="B280" t="s">
-        <v>329</v>
-      </c>
-      <c r="C280" t="n">
+      <c r="A280" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
+        <v>334</v>
+      </c>
+      <c r="C281" t="n">
         <v>3.003</v>
       </c>
-      <c r="D280" t="s">
-        <v>330</v>
-      </c>
-      <c r="E280" t="s">
-        <v>331</v>
-      </c>
-      <c r="F280" t="s">
-        <v>332</v>
-      </c>
-      <c r="G280" t="s">
-        <v>333</v>
-      </c>
-      <c r="H280" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>334</v>
+      <c r="D281" t="s">
+        <v>335</v>
+      </c>
+      <c r="E281" t="s">
+        <v>336</v>
+      </c>
+      <c r="F281" t="s">
+        <v>337</v>
+      </c>
+      <c r="G281" t="s">
+        <v>338</v>
+      </c>
+      <c r="H281" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="B283" t="s">
-        <v>335</v>
-      </c>
-      <c r="C283" t="n">
-        <v>3.481</v>
-      </c>
-      <c r="D283" t="s">
-        <v>336</v>
-      </c>
-      <c r="E283" t="s">
-        <v>337</v>
-      </c>
-      <c r="F283" t="s">
-        <v>338</v>
-      </c>
-      <c r="G283" t="s">
+      <c r="A283" t="s">
         <v>339</v>
-      </c>
-      <c r="H283" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -4302,7 +4317,7 @@
         <v>340</v>
       </c>
       <c r="C284" t="n">
-        <v>3.55</v>
+        <v>3.481</v>
       </c>
       <c r="D284" t="s">
         <v>341</v>
@@ -4320,115 +4335,138 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
-      <c r="A286" t="s">
+    <row r="285" spans="1:8">
+      <c r="B285" t="s">
         <v>345</v>
       </c>
+      <c r="C285" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="D285" t="s">
+        <v>346</v>
+      </c>
+      <c r="E285" t="s">
+        <v>347</v>
+      </c>
+      <c r="F285" t="s">
+        <v>348</v>
+      </c>
+      <c r="G285" t="s">
+        <v>349</v>
+      </c>
+      <c r="H285" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="B287" t="s">
-        <v>346</v>
-      </c>
-      <c r="C287" t="n">
+      <c r="A287" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="B288" t="s">
+        <v>351</v>
+      </c>
+      <c r="C288" t="n">
         <v>3</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D288" t="s">
         <v>65</v>
       </c>
-      <c r="E287" t="s">
-        <v>13</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="E288" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s">
         <v>65</v>
       </c>
-      <c r="G287" t="s">
-        <v>13</v>
-      </c>
-      <c r="H287" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="A289" t="s">
-        <v>347</v>
+      <c r="G288" t="s">
+        <v>13</v>
+      </c>
+      <c r="H288" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="B290" t="s">
-        <v>348</v>
-      </c>
-      <c r="C290" t="n">
+      <c r="A290" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="B291" t="s">
+        <v>353</v>
+      </c>
+      <c r="C291" t="n">
         <v>4</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D291" t="s">
         <v>34</v>
       </c>
-      <c r="E290" t="s">
-        <v>13</v>
-      </c>
-      <c r="F290" t="s">
-        <v>13</v>
-      </c>
-      <c r="G290" t="s">
-        <v>13</v>
-      </c>
-      <c r="H290" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="A292" t="s">
-        <v>349</v>
+      <c r="E291" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
+        <v>13</v>
+      </c>
+      <c r="G291" t="s">
+        <v>13</v>
+      </c>
+      <c r="H291" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="B293" t="s">
-        <v>348</v>
-      </c>
-      <c r="C293" t="n">
+      <c r="A293" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="B294" t="s">
+        <v>353</v>
+      </c>
+      <c r="C294" t="n">
         <v>4</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D294" t="s">
         <v>34</v>
       </c>
-      <c r="E293" t="s">
-        <v>13</v>
-      </c>
-      <c r="F293" t="s">
-        <v>13</v>
-      </c>
-      <c r="G293" t="s">
-        <v>13</v>
-      </c>
-      <c r="H293" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
-      <c r="A295" t="s">
-        <v>350</v>
+      <c r="E294" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294" t="s">
+        <v>13</v>
+      </c>
+      <c r="G294" t="s">
+        <v>13</v>
+      </c>
+      <c r="H294" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="B296" t="s">
-        <v>348</v>
-      </c>
-      <c r="C296" t="n">
+      <c r="A296" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="B297" t="s">
+        <v>353</v>
+      </c>
+      <c r="C297" t="n">
         <v>3.4</v>
       </c>
-      <c r="D296" t="s">
-        <v>179</v>
-      </c>
-      <c r="E296" t="s">
+      <c r="D297" t="s">
+        <v>185</v>
+      </c>
+      <c r="E297" t="s">
         <v>30</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F297" t="s">
         <v>30</v>
       </c>
-      <c r="G296" t="s">
-        <v>13</v>
-      </c>
-      <c r="H296" t="s">
+      <c r="G297" t="s">
+        <v>13</v>
+      </c>
+      <c r="H297" t="s">
         <v>13</v>
       </c>
     </row>
